--- a/BalanceSheet/ILMN_bal.xlsx
+++ b/BalanceSheet/ILMN_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>8000000.0</v>
+        <v>364000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>44000000.0</v>
+        <v>372000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>19000000.0</v>
+        <v>415000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-51000000.0</v>
+        <v>435000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-24000000.0</v>
+        <v>384000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>359000000.0</v>
@@ -1912,19 +1912,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-8000000.0</v>
+        <v>178000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>42000000.0</v>
+        <v>192000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>11000000.0</v>
+        <v>156000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>3000000.0</v>
+        <v>135000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-16000000.0</v>
+        <v>130000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>149000000.0</v>
@@ -3143,16 +3143,16 @@
         <v>-79000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>67000000.0</v>
+        <v>-20000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>3000000.0</v>
+        <v>-19000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>76000000.0</v>
+        <v>-13000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-29000000.0</v>
+        <v>-91000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>-64000000.0</v>
@@ -5051,7 +5051,7 @@
         <v>-1439000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>-1533000000.0</v>
+        <v>-2228000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>-2035000000.0</v>
@@ -5178,7 +5178,7 @@
         <v>1893000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1881000000.0</v>
+        <v>1186000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1131000000.0</v>
